--- a/medicine/Mort/Liste_des_cimetières_de_Paris/Liste_des_cimetières_de_Paris.xlsx
+++ b/medicine/Mort/Liste_des_cimetières_de_Paris/Liste_des_cimetières_de_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page recense les cimetières de Paris et autres lieux d'inhumation, ou ayant servi de lieu d'inhumation, existant ou ayant existé. Dans cette liste, il s'agit de lieux : 
 ou bien situés intra muros sur le territoire administratif de Paris — et soit appartenant à la municipalité de Paris (actuellement vingt cimetières plus les Catacombes), soit à quatre municipalités voisines (Charenton-le-Pont, Gentilly, Montrouge, Saint-Mandé) qui se sont vu amputées en 1860 au profit de la capitale d'une partie de leur territoire où se situe leur cimetière communal — ;
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un arrêt du Parlement de Paris du 21 mai 1765 interdit l'inhumation dans les cimetières de Paris. En effet, avant cette date, les inhumations étaient faites dans les cimetières jouxtant les églises paroissiales[1],[2].
-Ainsi 8 cimetières furent créés, mais cet arrêté resta sans exécution jusqu'en 1803[3].
-Jacques Hillairet dénombre 200 cimetières[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un arrêt du Parlement de Paris du 21 mai 1765 interdit l'inhumation dans les cimetières de Paris. En effet, avant cette date, les inhumations étaient faites dans les cimetières jouxtant les églises paroissiales,.
+Ainsi 8 cimetières furent créés, mais cet arrêté resta sans exécution jusqu'en 1803.
+Jacques Hillairet dénombre 200 cimetières.
 Sommaire :
 Haut – A
 B
@@ -557,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,7 +589,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière d'Auteuil
 Cimetière des Aveugles
@@ -617,7 +633,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -635,7 +651,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière parisien de Bagneux, un des six cimetières extra muros gérés par la Ville de Paris, situé sur le territoire de la commune de Bagneux
 Cimetière des Batignolles
@@ -680,7 +698,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -698,7 +716,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Catacombes
 Cimetière du Calvaire
@@ -750,7 +770,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -768,7 +788,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière des Errancis
 Cimetière de l'Est
@@ -809,7 +831,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -827,7 +849,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière juif de la rue de Flandre
 Couvent des Feuillants du Faubourg-Saint-Honoré
@@ -868,7 +892,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -886,7 +910,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière de la place Gozlin
 Cimetière de Grenelle
@@ -929,7 +955,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -947,7 +973,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière des Hôpitaux
 Cimetière des Hospitalières-de-la-Roquette
@@ -988,7 +1016,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1006,7 +1034,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière des Innocents
 Église du Dôme des Invalides
@@ -1048,7 +1078,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1066,7 +1096,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Couvent des Jacobins de la rue Saint-Jacques
 Cimetière juif à l'emplacement des rues d'Hautefeuille et Sarrazin, disparu en 1310
@@ -1107,7 +1139,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1125,7 +1157,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière parisien de La Chapelle, un des six cimetières extra muros gérés par la Ville de Paris, situé sur le territoire de la commune de Saint-Denis
 Cimetière de La Villette
@@ -1167,7 +1201,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1185,7 +1219,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière de la Madeleine
 Ancienne église de la Madeleine
@@ -1237,7 +1273,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1255,7 +1291,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Cathédrale Notre-Dame de Paris
 Cimetière de la rue Nicole
@@ -1297,7 +1335,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1315,7 +1353,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière parisien de Pantin, un des six cimetières extra muros gérés par la Ville de Paris, situé sur le territoire de la commune de Pantin
 Cimetière de Passy
@@ -1370,7 +1410,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1388,7 +1428,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière des Quinze-Vingts
 Sommaire :
@@ -1428,7 +1470,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1446,7 +1488,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière des Récollets
 Cimetière de la rue Royale
@@ -1487,7 +1531,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1505,7 +1549,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Abbaye Saint-Victor
 Abbaye Sainte-Geneviève
@@ -1635,7 +1681,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1653,7 +1699,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière de la Trinité
 Couvent des Théatins
@@ -1697,7 +1745,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Paris</t>
+          <t>Liste_des_cimetières_de_Paris</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1715,14 +1763,16 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Abbaye du Val-de-Grâce
 Cimetière Valmy (appartenant à la commune de Charenton-le-Pont et dévolu à son usage, mais situé géographiquement dans le sud du 12e arrondissement de Paris)
-Le cimetière du village de Vaugirard également appelé cimetière paroissial de Vaugirard ou 1er cimetière de Vaugirard (Situé rue de Vaugirard-rue Saint-Lambert-rue Desnouettes-place Henri-Rollet - Détruit)[5]
-Le cimetière du village de Vaugirard dit cimetière d'en-haut  (Situé rue de Vaugirard-rue Cambronne-rue Blomet - Détruit)[5]
-2e cimetière de Vaugirard dit Cimetière parisien de Vaugirard (Situé rue de Vaugirard-rue Lecourbe-boulevard Pasteur-rue de Staël-lycée Buffon ancêtre du cimetière du Montparnasse - Détruit)[5]
-3e cimetière de Vaugirard dit Cimetière de Vaugirard[5]
+Le cimetière du village de Vaugirard également appelé cimetière paroissial de Vaugirard ou 1er cimetière de Vaugirard (Situé rue de Vaugirard-rue Saint-Lambert-rue Desnouettes-place Henri-Rollet - Détruit)
+Le cimetière du village de Vaugirard dit cimetière d'en-haut  (Situé rue de Vaugirard-rue Cambronne-rue Blomet - Détruit)
+2e cimetière de Vaugirard dit Cimetière parisien de Vaugirard (Situé rue de Vaugirard-rue Lecourbe-boulevard Pasteur-rue de Staël-lycée Buffon ancêtre du cimetière du Montparnasse - Détruit)
+3e cimetière de Vaugirard dit Cimetière de Vaugirard
 Cimetière Verd
 Couvent de la Visitation Sainte-Marie
 Église du Val-de-Grâce
